--- a/planilha-base.xlsx
+++ b/planilha-base.xlsx
@@ -1,41 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r3\projetos\quadrohorario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA047A-1151-4ECB-923C-8E9E18B226C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>observacao</t>
+  </si>
+  <si>
+    <t>AMOXILINA</t>
+  </si>
+  <si>
+    <t>MEDICAÇÃO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ÁGUA MINERAL</t>
+  </si>
+  <si>
+    <t>HIDRATAÇÃO</t>
+  </si>
+  <si>
+    <t>250ML</t>
+  </si>
+  <si>
+    <t>LEVOID</t>
+  </si>
+  <si>
+    <t>KEPRA</t>
+  </si>
+  <si>
+    <t>NEBULIZAÇÃO</t>
+  </si>
+  <si>
+    <t>SINAIS VITAIS</t>
+  </si>
+  <si>
+    <t>SIMETICONA</t>
+  </si>
+  <si>
+    <t>DIETA</t>
+  </si>
+  <si>
+    <t>HIGIENE</t>
+  </si>
+  <si>
+    <t>ATROPINA</t>
+  </si>
+  <si>
+    <t>VITAMINA</t>
+  </si>
+  <si>
+    <t>RILUZOL</t>
+  </si>
+  <si>
+    <t>PROPANTELINA GEL</t>
+  </si>
+  <si>
+    <t>PREGABALINA</t>
+  </si>
+  <si>
+    <t>SUCO</t>
+  </si>
+  <si>
+    <t>ELLURA</t>
+  </si>
+  <si>
+    <t>LACTULONA</t>
+  </si>
+  <si>
+    <t>FUROSEMIDA</t>
+  </si>
+  <si>
+    <t>BANHO</t>
+  </si>
+  <si>
+    <t>COLÍRIO LACRIFILM</t>
+  </si>
+  <si>
+    <t>SOPA</t>
+  </si>
+  <si>
+    <t>L-SERINA</t>
+  </si>
+  <si>
+    <t>875mg</t>
+  </si>
+  <si>
+    <t>de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>1 comprimido em jejum</t>
+  </si>
+  <si>
+    <t>100mg/ml</t>
+  </si>
+  <si>
+    <t>10ml de 12 em 12 horas</t>
+  </si>
+  <si>
+    <t>ATROVENT 35 GOTAS</t>
+  </si>
+  <si>
+    <t>NEBULIZAÇÃO - ASPIRAÇÃO</t>
+  </si>
+  <si>
+    <t>TEMPERATURA - FREQUENCIA CARDÍACA - PRESSÃO ARTERIAL - FREQUENCIA RESPIRATÓRIA - PULSO - DOR</t>
+  </si>
+  <si>
+    <t>5 gotas de 6 em 6 horas</t>
+  </si>
+  <si>
+    <t>40 gotas</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>Frase de teste</t>
+  </si>
+  <si>
+    <t>REMEDIO BARRIGA</t>
+  </si>
+  <si>
+    <t>COLIRIO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +190,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,260 +542,574 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>nome</v>
-      </c>
-      <c r="B1" t="str">
-        <v>horario</v>
-      </c>
-      <c r="C1" t="str">
-        <v>tipo</v>
-      </c>
-      <c r="D1" t="str">
-        <v>desc</v>
-      </c>
-      <c r="E1" t="str">
-        <v>observacao</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>AMOXILINA</v>
-      </c>
-      <c r="B2" t="str">
-        <v>17:30</v>
-      </c>
-      <c r="C2" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D2" t="str">
-        <v>875MG 12/12 HORAS</v>
-      </c>
-      <c r="E2" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ÁGUA MINERAL</v>
-      </c>
-      <c r="B3" t="str">
-        <v>17:38</v>
-      </c>
-      <c r="C3" t="str">
-        <v>HIDRATAÇÃO</v>
-      </c>
-      <c r="D3" t="str">
-        <v>250ML</v>
-      </c>
-      <c r="E3" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>LEVOID</v>
-      </c>
-      <c r="B4" t="str">
-        <v>18:09</v>
-      </c>
-      <c r="C4" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1 COMPRIMIDO EM JEJUM</v>
-      </c>
-      <c r="E4" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>KEPRA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>18:10</v>
-      </c>
-      <c r="C5" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D5" t="str">
-        <v>100GM/ML 10ML 12/12 HORAS</v>
-      </c>
-      <c r="E5" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>NEBULIZAÇÃO</v>
-      </c>
-      <c r="B6" t="str">
-        <v>18:11</v>
-      </c>
-      <c r="C6" t="str">
-        <v>NEBULIZAÇÃO</v>
-      </c>
-      <c r="D6" t="str">
-        <v>NEBULIZAÇÃO - ASPIRAÇÃO - ATROVENT 35 GOTAS</v>
-      </c>
-      <c r="E6" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SINAIS VITAIS</v>
-      </c>
-      <c r="B7" t="str">
-        <v>18:12</v>
-      </c>
-      <c r="C7" t="str">
-        <v>SINAIS VITAIS</v>
-      </c>
-      <c r="D7" t="str">
-        <v>TEMPERATURA - FREQUENCIA CARDÍACA - PRESSÃO ARTERIAL</v>
-      </c>
-      <c r="E7" t="str">
-        <v>FREQUENCIA RESPIRATÓRIA - PULSO - DOR</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>ATROPINA 1%</v>
-      </c>
-      <c r="B8" t="str">
-        <v>17:47</v>
-      </c>
-      <c r="C8" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D8" t="str">
-        <v>5 GOTAS 06/06 HROAS</v>
-      </c>
-      <c r="E8" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>SIMETICONA</v>
-      </c>
-      <c r="B9" t="str">
-        <v>17:22</v>
-      </c>
-      <c r="C9" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve">40 GOTAS - </v>
-      </c>
-      <c r="E9" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>DOMPERIDONA</v>
-      </c>
-      <c r="B10" t="str">
-        <v>17:23</v>
-      </c>
-      <c r="C10" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D10" t="str">
-        <v>10ML</v>
-      </c>
-      <c r="E10" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>DOMPERIDONA</v>
-      </c>
-      <c r="B11" t="str">
-        <v>17:25</v>
-      </c>
-      <c r="C11" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D11" t="str">
-        <v>10ML</v>
-      </c>
-      <c r="E11" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>DOMPERIDONA</v>
-      </c>
-      <c r="B12" t="str">
-        <v>17:26</v>
-      </c>
-      <c r="C12" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D12" t="str">
-        <v>10ML</v>
-      </c>
-      <c r="E12" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>DOMPERIDONA</v>
-      </c>
-      <c r="B13" t="str">
-        <v>17:27</v>
-      </c>
-      <c r="C13" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D13" t="str">
-        <v>10ML</v>
-      </c>
-      <c r="E13" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>DOMPERIDONA</v>
-      </c>
-      <c r="B14" t="str">
-        <v>17:28</v>
-      </c>
-      <c r="C14" t="str">
-        <v>MEDICAÇÃO</v>
-      </c>
-      <c r="D14" t="str">
-        <v>10ML</v>
-      </c>
-      <c r="E14" t="str">
-        <v>-</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.87083333333333335</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.87291666666666667</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
+    <ignoredError sqref="A1:E1 C2 A3 D3:E3 A4 A5 A6 C6 A7 C7 C8 A9 E10 E11 E12 E13 C14 E14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>